--- a/public/img/masterplans_exemple_sheet.xlsx
+++ b/public/img/masterplans_exemple_sheet.xlsx
@@ -1,29 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26202"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71447937-105B-4DE4-9DA0-0AC30325BC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Feuil1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -69,7 +55,7 @@
     <t>L</t>
   </si>
   <si>
-    <t>CBD,Business District,Mixed-use</t>
+    <t>CBD, Business District, Mixed-use</t>
   </si>
   <si>
     <t>http://</t>
@@ -107,17 +93,17 @@
     <t>22.523267, 114.073447</t>
   </si>
   <si>
-    <t>Science Park,Business District</t>
+    <t>Science Park, Business District</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,7 +113,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -146,7 +132,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -158,38 +151,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="12">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -200,10 +205,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -230,116 +235,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -351,154 +322,208 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="76.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="127.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="60.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="154.5">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>

--- a/public/img/masterplans_exemple_sheet.xlsx
+++ b/public/img/masterplans_exemple_sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>L_HenningLarsen_ShenzhenBayHQCity.jpg</t>
   </si>
@@ -44,6 +44,9 @@
 The Forest City has proposed the planting of 10,000 trees and the introduction of bioswales in the streets. This would form vital nesting areas for the local birds and insects.
 There is a linear water body along the central axis which connects the two existing water bodies on either side of the plan. It creates a blue and green open space at the center of the city.
 </t>
+  </si>
+  <si>
+    <t>https://link.com/, http://link2.com</t>
   </si>
   <si>
     <t>22.526888, 113.969443</t>
@@ -85,9 +88,6 @@
 The collaborative innovation area would be the focus, with research centers  as well as venues for exchange of this knowledge via conference centers.
 The port living district is located at the eastern end near the metro station. It would have residential developments connected with recreational, educational and shopping facilities for the science park residents.
 </t>
-  </si>
-  <si>
-    <t>https://www.zaha-hadid.com/masterplans/huanggang-port-area-masterplan/</t>
   </si>
   <si>
     <t>22.523267, 114.073447</t>
@@ -499,7 +499,7 @@
     <col min="3" max="3" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
@@ -515,11 +515,11 @@
     <col min="19" max="19" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="7" width="45.71928571428572" customWidth="1" bestFit="1"/>
     <col min="23" max="23" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="24" max="24" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="25" max="25" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="11" width="29.005" customWidth="1" bestFit="1"/>
     <col min="27" max="27" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -563,32 +563,34 @@
       <c r="U1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="1"/>
+      <c r="V1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="W1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="154.5">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -597,7 +599,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2">
         <v>2020</v>
@@ -618,25 +620,25 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
